--- a/excel/form_input.xlsx
+++ b/excel/form_input.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Sites/siplah/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7DCFC27-1A5F-D740-8B78-9B56E16FC8E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6E776F-1CAA-EE4F-9003-72EA1A3DB307}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="100" windowWidth="25980" windowHeight="14580" xr2:uid="{F6307342-6E48-C042-9700-D82D034E1A66}"/>
+    <workbookView xWindow="280" yWindow="100" windowWidth="25980" windowHeight="14580" activeTab="1" xr2:uid="{F6307342-6E48-C042-9700-D82D034E1A66}"/>
   </bookViews>
   <sheets>
     <sheet name="Register Seller" sheetId="1" r:id="rId1"/>
+    <sheet name="Add Product - Specified_item" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="90">
   <si>
     <t>business_format</t>
   </si>
@@ -154,6 +155,147 @@
   </si>
   <si>
     <t>select</t>
+  </si>
+  <si>
+    <t>category_product</t>
+  </si>
+  <si>
+    <t>hidden</t>
+  </si>
+  <si>
+    <t>product_title</t>
+  </si>
+  <si>
+    <t>minimum_order</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>custom_category</t>
+  </si>
+  <si>
+    <t>textarea</t>
+  </si>
+  <si>
+    <t>if (type == "specified-item-non-text")</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>price_1</t>
+  </si>
+  <si>
+    <t>price_2</t>
+  </si>
+  <si>
+    <t>price_3</t>
+  </si>
+  <si>
+    <t>price_4</t>
+  </si>
+  <si>
+    <t>price_5</t>
+  </si>
+  <si>
+    <t>endif</t>
+  </si>
+  <si>
+    <t>category_homemade</t>
+  </si>
+  <si>
+    <t>custom_checkbox</t>
+  </si>
+  <si>
+    <t>category_umkm</t>
+  </si>
+  <si>
+    <t>category_kemendikbud</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>sku</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>courier</t>
+  </si>
+  <si>
+    <t>delivery_method</t>
+  </si>
+  <si>
+    <t>delivery_time</t>
+  </si>
+  <si>
+    <t>delivery_assurance</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>category_id</t>
+  </si>
+  <si>
+    <t>kbki</t>
+  </si>
+  <si>
+    <t>With is_price_zone 1</t>
+  </si>
+  <si>
+    <t>is_homemade</t>
+  </si>
+  <si>
+    <t>is_umkm_product</t>
+  </si>
+  <si>
+    <t>is_kemendikbud_product</t>
+  </si>
+  <si>
+    <t>product_condition</t>
+  </si>
+  <si>
+    <t>shipping_courier_id</t>
+  </si>
+  <si>
+    <t>shipping_method</t>
+  </si>
+  <si>
+    <t>shipping_time</t>
+  </si>
+  <si>
+    <t>guarantee</t>
+  </si>
+  <si>
+    <t>warranty</t>
+  </si>
+  <si>
+    <t>is_visibility</t>
+  </si>
+  <si>
+    <t>visibility &amp; status_type_id</t>
   </si>
 </sst>
 </file>
@@ -199,10 +341,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F886D6D-E653-AC4C-B039-5F1783C138FA}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -532,16 +674,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -708,12 +850,12 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -740,12 +882,12 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -756,12 +898,12 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -803,4 +945,403 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4962A8CE-148B-0646-8BF8-F57D26ECEC5D}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A17:D17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>